--- a/RawData/KineticsOfTheHydrolysisOfXylanBasedOnEtherBondCleavageInSubcriticalWater.xlsx
+++ b/RawData/KineticsOfTheHydrolysisOfXylanBasedOnEtherBondCleavageInSubcriticalWater.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB0C789-6EC1-4E57-97D1-901D167151D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A441D98-1961-49DE-8FAE-410DF5286707}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
   <si>
     <t>mol proton/L</t>
   </si>
@@ -337,6 +337,14 @@
   </si>
   <si>
     <t>mono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3441,29 +3449,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBFDDB0-64D9-428A-B667-8EAE0E841A52}">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="24" max="24" width="23.109375" customWidth="1"/>
+    <col min="25" max="25" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3474,73 +3482,76 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>46</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>44</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>45</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>7.5</v>
       </c>
@@ -3550,35 +3561,38 @@
       <c r="C3">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>76</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.28</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2.5</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>17.045454545454547</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.78078422400980085</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>6.7987567987566902E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>12.5</v>
       </c>
@@ -3588,35 +3602,38 @@
       <c r="C4">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>76</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.28</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>10</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2.5</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>17.045454545454547</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>3.7634167287568965</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>0.11655011655011666</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>17.5</v>
       </c>
@@ -3626,35 +3643,38 @@
       <c r="C5">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>76</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.28</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
         <v>2.5</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>17.045454545454547</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>7.4759360075616321</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>0.28166278166278175</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>22.5</v>
       </c>
@@ -3664,35 +3684,38 @@
       <c r="C6">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="D6" t="s">
+        <v>76</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.28</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>20</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2.5</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>17.045454545454547</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>7.9074427860750607</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>0.39821289821289613</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>32.5</v>
       </c>
@@ -3702,35 +3725,38 @@
       <c r="C7">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="D7" t="s">
+        <v>76</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1.28</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>30</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2.5</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>17.045454545454547</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>8.3719623499644449</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>0.79642579642579558</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>62.5</v>
       </c>
@@ -3740,35 +3766,38 @@
       <c r="C8">
         <v>15</v>
       </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="D8" t="s">
+        <v>76</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.28</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>60</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>2.5</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>17.045454545454547</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>7.248062099853426</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>2.1756021756021742</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>122.5</v>
       </c>
@@ -3778,35 +3807,38 @@
       <c r="C9">
         <v>15</v>
       </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="D9" t="s">
+        <v>76</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1.28</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>120</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2.5</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>17.045454545454547</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>3.4808619240875007</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>2.7680652680652651</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>242.5</v>
       </c>
@@ -3816,35 +3848,38 @@
       <c r="C10">
         <v>15</v>
       </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="D10" t="s">
+        <v>76</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.28</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>240</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2.5</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>17.045454545454547</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1.1363636363636289</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1.1363636363636289</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>7.5</v>
       </c>
@@ -3854,35 +3889,38 @@
       <c r="C11">
         <v>15</v>
       </c>
-      <c r="D11">
-        <v>0</v>
+      <c r="D11" t="s">
+        <v>76</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.28</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>5</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2.5</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>17.045454545454547</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>6.7867665919897551</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>0.18742108585858333</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>12.5</v>
       </c>
@@ -3892,35 +3930,38 @@
       <c r="C12">
         <v>15</v>
       </c>
-      <c r="D12">
-        <v>0</v>
+      <c r="D12" t="s">
+        <v>76</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.28</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>10</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2.5</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>17.045454545454547</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>9.2060391698489692</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>0.75954861111110594</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>17.5</v>
       </c>
@@ -3930,35 +3971,38 @@
       <c r="C13">
         <v>15</v>
       </c>
-      <c r="D13">
-        <v>0</v>
+      <c r="D13" t="s">
+        <v>76</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.28</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13">
         <v>2.5</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>17.045454545454547</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>8.8652840543393392</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>1.4599116161616135</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>22.5</v>
       </c>
@@ -3968,35 +4012,38 @@
       <c r="C14">
         <v>15</v>
       </c>
-      <c r="D14">
-        <v>0</v>
+      <c r="D14" t="s">
+        <v>76</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1.28</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>20</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2.5</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>17.045454545454547</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>7.3136075780263816</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>2.0912247474747425</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>32.5</v>
       </c>
@@ -4006,35 +4053,38 @@
       <c r="C15">
         <v>15</v>
       </c>
-      <c r="D15">
-        <v>0</v>
+      <c r="D15" t="s">
+        <v>76</v>
       </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.28</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>30</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2.5</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>17.045454545454547</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>4.6290982644598184</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>2.6140309343434316</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>3.5</v>
       </c>
@@ -4044,35 +4094,38 @@
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16">
-        <v>0</v>
+      <c r="D16" t="s">
+        <v>76</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1.28</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2.5</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>17.045454545454547</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1.1714803650188845</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>4.0839663481174168E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>5.5</v>
       </c>
@@ -4082,35 +4135,38 @@
       <c r="C17">
         <v>15</v>
       </c>
-      <c r="D17">
-        <v>0</v>
+      <c r="D17" t="s">
+        <v>76</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.28</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>3</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2.5</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>17.045454545454547</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>8.780205205160371</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>0.60238503634730312</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>7.5</v>
       </c>
@@ -4120,35 +4176,38 @@
       <c r="C18">
         <v>15</v>
       </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="D18" t="s">
+        <v>76</v>
       </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1.28</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>5</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2.5</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>17.045454545454547</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>8.736346347726931</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1.2558196520460678</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:26">
       <c r="A19">
         <v>12.5</v>
       </c>
@@ -4158,35 +4217,38 @@
       <c r="C19">
         <v>15</v>
       </c>
-      <c r="D19">
-        <v>0</v>
+      <c r="D19" t="s">
+        <v>76</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1.28</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>10</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2.5</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>17.045454545454547</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>4.0333874256000497</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>2.0726129216695228</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>17.5</v>
       </c>
@@ -4196,35 +4258,38 @@
       <c r="C20">
         <v>15</v>
       </c>
-      <c r="D20">
-        <v>0</v>
+      <c r="D20" t="s">
+        <v>76</v>
       </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.28</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="J20">
         <v>2.5</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>17.045454545454547</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1.5490165226270678</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>1.2966593155272343</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>22.5</v>
       </c>
@@ -4234,35 +4299,38 @@
       <c r="C21">
         <v>15</v>
       </c>
-      <c r="D21">
-        <v>0</v>
+      <c r="D21" t="s">
+        <v>76</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1.28</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>20</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2.5</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>17.045454545454547</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.83676215377747898</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.5002858776443706</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>32.5</v>
       </c>
@@ -4272,31 +4340,34 @@
       <c r="C22">
         <v>15</v>
       </c>
-      <c r="D22">
-        <v>0</v>
+      <c r="D22" t="s">
+        <v>76</v>
       </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>0.33499999999999996</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1.28</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>30</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>2.5</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>17.045454545454547</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.31650739197909089</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.31650739197909089</v>
       </c>
     </row>
